--- a/biology/Zoologie/Crénelée/Crénelée.xlsx
+++ b/biology/Zoologie/Crénelée/Crénelée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cr%C3%A9nel%C3%A9e</t>
+          <t>Crénelée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gluphisia crenata
 La Crénelée, Gluphisia crenata, est une espèce de lépidoptères appartenant à la famille des Notodontidae, à la sous-famille des Pygaerinae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cr%C3%A9nel%C3%A9e</t>
+          <t>Crénelée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,15 +524,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Gluphisia crenata (Eugen Johann Christoph Esper, 1785)
-Noms vernaculaires
-La Crénelée se nomme en anglais Dusky Marbled Brown, en allemand Pappelauen-Zahnspinner et en néerlandais populierentandvlinder.
-Sous-espèces
-Gluphisia crenata crenata
-Gluphisia crenata vertunea
-Gluphisia crenata meridionalis</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gluphisia crenata (Eugen Johann Christoph Esper, 1785)
+</t>
         </is>
       </c>
     </row>
@@ -530,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cr%C3%A9nel%C3%A9e</t>
+          <t>Crénelée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,15 +554,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>C'est un papillon marron tacheté de marron clair.
-Les mâles sont reconnaissables à leurs antennes plumeuses.
-Chenille
-Chrysalide</t>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Crénelée se nomme en anglais Dusky Marbled Brown, en allemand Pappelauen-Zahnspinner et en néerlandais populierentandvlinder.
+</t>
         </is>
       </c>
     </row>
@@ -563,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cr%C3%A9nel%C3%A9e</t>
+          <t>Crénelée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,16 +591,20 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Vole d’avril à septembre en une ou deux générations.
-Plantes hôtes
-Populus et Salix.
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Gluphisia crenata crenata
+Gluphisia crenata vertunea
+Gluphisia crenata meridionalis</t>
         </is>
       </c>
     </row>
@@ -597,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cr%C3%A9nel%C3%A9e</t>
+          <t>Crénelée</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -612,15 +629,160 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un papillon marron tacheté de marron clair.
+Les mâles sont reconnaissables à leurs antennes plumeuses.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Crénelée</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cr%C3%A9nel%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vole d’avril à septembre en une ou deux générations.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Crénelée</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cr%C3%A9nel%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Populus et Salix.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Crénelée</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cr%C3%A9nel%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est présente en Europe, en Russie, en Chine et au Japon.
-En France métropolitaine elle est présente dans tous les départements sauf quatorze (dont la Corse, le pourtour de la Méditerranée, Finistère, Charente)[1]
-Biotope
-Habite les bois et les prairies.
+En France métropolitaine elle est présente dans tous les départements sauf quatorze (dont la Corse, le pourtour de la Méditerranée, Finistère, Charente)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Crénelée</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cr%C3%A9nel%C3%A9e</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Habite les bois et les prairies.
 </t>
         </is>
       </c>
